--- a/biology/Médecine/Philadelphe_Delord/Philadelphe_Delord.xlsx
+++ b/biology/Médecine/Philadelphe_Delord/Philadelphe_Delord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philadelphe Paul Émile Delord, né le 2 décembre 1869 à Beauvoisin (Gard) et mort à 24 novembre 1947 (à 77 ans) à Saint-Paulet-de-Caisson est un pasteur français, fondateur dans la Chartreuse de Valbonne du premier dispensaire pour lépreux en France avec le soutien des « American Leprosy Missions », en 1929.
 </t>
@@ -511,10 +523,12 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille protestante du Gard, il fait ses études de théologie en Suisse pour être pasteur à Marseille. Missionnaire envoyé par la Société des missions évangéliques de Paris dans l'île de Maré de 1897 à 1910, il y fonde deux léproseries et participe à l'édification de plusieurs temples. De retour en France en 1910, il est secrétaire général de l'Association de Secours aux Victimes des Maladies Tropicales.
-Il poursuit la lutte contre la lèpre en achetant et transformant la Chartreuse de Valbonne en léproserie en 1929, à proximité de Pont-Saint-Esprit (Gard). L'œuvre de la léproserie sera soutenue par les dons de la philanthrope Marthe North-Siegfried (1866-1939)[1], fondatrice de la Croix-Rouge alsacienne.
+Il poursuit la lutte contre la lèpre en achetant et transformant la Chartreuse de Valbonne en léproserie en 1929, à proximité de Pont-Saint-Esprit (Gard). L'œuvre de la léproserie sera soutenue par les dons de la philanthrope Marthe North-Siegfried (1866-1939), fondatrice de la Croix-Rouge alsacienne.
 Pendant la 2e Guerre mondiale, la léproserie sera le refuge de nombreux juifs et proscrits. Les Allemands, par crainte de la contagion, évitent de secteur ! Fin 1944, Albert Delord, fils de Philadelphe Delord et pasteur à Carmaux de 1940 à 1944, succède à son père à la tête de la léproserie de la Chartreuse de Valbonne.
 Philadelphe Delord décède le 24 novembre 1947 à Saint-Paulet-de-Caisson. Il est enterré aux côtés de sa femme dans le grand cloître de la Chartreuse de Valbonne.
 </t>
@@ -545,7 +559,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Deux sous de Tafoïta, Cahors, impr. Coueslant, 1923. In-8, 16 p.
 Une histoire extraordinaire et pourtant vraie, Nîmes, impr. J. Teissier , 1939. In-8, 40 p.
@@ -553,7 +569,7 @@
 Parmi les abandonnés, Cahors, impr. Coueslant, 1923. In-8, 155 p.
 Pitié pour eux ou Comment j'ai été conduit à m'occuper des lépreux, Cahors, impr. Coueslant ; Paris, Comité de secours aux lépreux, 1923. In-8 à 2 col., 24 p. avec gravures.
 Société des missions évangéliques de Paris. Mon Voyage d'enquête en Nouvelle-Calédonie, [avec une introduction par Jean Bianquis], août-septembre 1899, In-16, 241 p., fig. et cartes, Paris : maison des missions évangéliques , 1901
-Valbonne, les chemins de la foi, Saint-Paulet-de-Caisson, Sanatorium de Valbonne , 1980, 93 p.-[8] p. de pl.
+Valbonne, les chemins de la foi, Saint-Paulet-de-Caisson, Sanatorium de Valbonne , 1980, 93 p.- p. de pl.
 Valbonne, une œuvre française et coloniale, [Signé : Ph. Delord.], Paris, Association de secours aux victimes des maladies tropicales , 1927, In-8°, 12 p.</t>
         </is>
       </c>
